--- a/biology/Virologie/Mastrevirus/Mastrevirus.xlsx
+++ b/biology/Virologie/Mastrevirus/Mastrevirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mastrevirus est un genre de virus de la famille des Geminiviridae, qui compte 41 espèces acceptées par l'ICTV, dont le MSV (Maize streak virus), le virus de la striure du maïs, qui est l'espèce-type.
 Ce sont des virus à ADN simple brin à polarité positive, rattachés au groupe II de la classification Baltimore. Le génome est monopartite circulaire. Les virions, non enveloppés, sont constitués de deux capsides géminées à symétrie icosaédrique.
-Ces virus infectent les plantes (phytovirus), en particulier les cultures de céréales tropicales et tempérées et certaines cultures maraîchères. De nombreux Mastrevirus infectant les céréales infectent également les graminées sauvages, qui sont souvent considérées comme les hôtes naturels de ces virus. Ils sont transmis par des cicadelles qui n'ont été identifiées que dans les plantes présentes dans l'Ancien Monde[2].
+Ces virus infectent les plantes (phytovirus), en particulier les cultures de céréales tropicales et tempérées et certaines cultures maraîchères. De nombreux Mastrevirus infectant les céréales infectent également les graminées sauvages, qui sont souvent considérées comme les hôtes naturels de ces virus. Ils sont transmis par des cicadelles qui n'ont été identifiées que dans les plantes présentes dans l'Ancien Monde.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Mastrevirus » dérive du nom de l'espèce-type, Maize streak virus, le virus de la striure du maïs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Mastrevirus » dérive du nom de l'espèce-type, Maize streak virus, le virus de la striure du maïs.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non-enveloppées, d'environ 38 nm de long et 22 nm de diamètre, jumelées (géminées), dont la capside à symétrie icosaédrique T=1 incomplète contient 22 capsomères pentamères constitués de 110 protéines de capside (CP). Chaque particule géminée contient une seule molécule d'ADN simple brin circulaire[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non-enveloppées, d'environ 38 nm de long et 22 nm de diamètre, jumelées (géminées), dont la capside à symétrie icosaédrique T=1 incomplète contient 22 capsomères pentamères constitués de 110 protéines de capside (CP). Chaque particule géminée contient une seule molécule d'ADN simple brin circulaire.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génome, monopartite, est constitué d'une molécule d'ADN à simple brin (ADNsb), de polarité positive, d'environ 2,6-2,8 kb. L'extrémité 3' n'a pas de queue poly (A). Il y a des régions codantes dans les deux sens, sens du virion (positif) et sens complémentaire (négatif).
 Le génome est répliqué par des intermédiaires à double brin. La protéine de réplication (Rep) initie et termine la réplication en cercle roulant, l'ADN polymérase hôte étant utilisée pour la réplication de l'ADN lui-même. Il existe une structure tige-boucle potentielle dans la longue région intergénique (LIR) qui comprend une séquence non nucléotidique conservée (TAATATTAC) où la synthèse de l'ADNsb est initiée.
-La région intergénique courte (SIR) contient des signaux de polyadénylation bidirectionnels[4].
-Le génome des Mastrevirus code quatre protéines. Les deux protéines codées dans le sens positif sont la protéine de capside (CP, gène V1) qui encapside l'ADNsb, et la protéine de mouvement (MP, gène V2) , qui fonctionne pour le déplacement de cellule à cellule. Le brin de sens complémentaire (négatif) code la protéine associée à la réplication (Rep), exprimée à partir des gènes C1 et C2, et la protéine RepA (ORF C1), également impliquée dans le processus de réplication[2].
+La région intergénique courte (SIR) contient des signaux de polyadénylation bidirectionnels.
+Le génome des Mastrevirus code quatre protéines. Les deux protéines codées dans le sens positif sont la protéine de capside (CP, gène V1) qui encapside l'ADNsb, et la protéine de mouvement (MP, gène V2) , qui fonctionne pour le déplacement de cellule à cellule. Le brin de sens complémentaire (négatif) code la protéine associée à la réplication (Rep), exprimée à partir des gènes C1 et C2, et la protéine RepA (ORF C1), également impliquée dans le processus de réplication.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gamme de plantes-hôtes du genre Mastrevirus est relativement étroite. À l'exception du TYDV (Tobacco yellow dwarf virus) et du CpCDV (Chickpea chlorotic dwarf virus), qui infectent des plantes des familles des Solanaceae et des Fabaceae, respectivement, les hôtes de ces virus se limitent aux espèces de plantes monocotylédones[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gamme de plantes-hôtes du genre Mastrevirus est relativement étroite. À l'exception du TYDV (Tobacco yellow dwarf virus) et du CpCDV (Chickpea chlorotic dwarf virus), qui infectent des plantes des familles des Solanaceae et des Fabaceae, respectivement, les hôtes de ces virus se limitent aux espèces de plantes monocotylédones.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les virus du genre Mastrevirus sont transmis par des insectes-vecteurs de l'ordre des Hémiptères, selon un mode persistant, circulant et non propagatif. Ces vecteurs sont des cicadelles (famille des Cicadellidae) spécifiques, dans la plupart des cas la transmission se fait par une seule espèce. Les Mastrevirus ne sont normalement pas transmissibles par inoculation mécanique.
 </t>
@@ -671,9 +693,11 @@
           <t>Liste espèces et des non-classés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 février 2021)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 février 2021) :
 Axonopus compressus streak virus
 Bromus catharticus striate mosaic virus
 Chickpea chlorosis Australia virus
